--- a/health_web/src/main/webapp/template/report_template.xlsx
+++ b/health_web/src/main/webapp/template/report_template.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,143 +15,247 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eric</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Eric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell=”H13”)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Eric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items=”obj.hotSetmeal”, var=”p”,lastCell=”H13”)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>运营数据统计</t>
+  </si>
+  <si>
+    <t>会员数据统计</t>
+  </si>
+  <si>
+    <t>本日新增会员数</t>
+  </si>
+  <si>
+    <t>${obj.todayNewMember}</t>
+  </si>
+  <si>
+    <t>总会员数</t>
+  </si>
+  <si>
+    <t>${obj.totalMember}</t>
+  </si>
+  <si>
+    <t>本周新增会员数</t>
+  </si>
+  <si>
+    <t>${obj.thisWeekNewMember}</t>
+  </si>
+  <si>
+    <t>本月新增会员数</t>
+  </si>
+  <si>
+    <t>${obj.thisMonthNewMember}</t>
+  </si>
+  <si>
+    <t>预约到诊数据统计</t>
+  </si>
+  <si>
+    <t>今日预约数</t>
+  </si>
+  <si>
+    <t>${obj.todayOrderNumber}</t>
+  </si>
+  <si>
+    <t>今日到诊数</t>
+  </si>
+  <si>
+    <t>${obj.todayVisitsNumber}</t>
+  </si>
+  <si>
+    <t>本周预约数</t>
+  </si>
+  <si>
+    <t>${obj.thisWeekOrderNumber}</t>
+  </si>
+  <si>
+    <t>本周到诊数</t>
+  </si>
+  <si>
+    <t>${obj.thisWeekVisitsNumber}</t>
+  </si>
+  <si>
+    <t>本月预约数</t>
+  </si>
+  <si>
+    <t>${obj.thisMonthOrderNumber}</t>
+  </si>
+  <si>
+    <t>本月到诊数</t>
+  </si>
+  <si>
+    <t>${obj.thisMonthVisitsNumber}</t>
+  </si>
+  <si>
+    <t>热门套餐</t>
+  </si>
+  <si>
+    <t>套餐名称</t>
+  </si>
+  <si>
+    <t>预约数量</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>${p.name}</t>
+  </si>
+  <si>
+    <t>${p.proportion}</t>
+  </si>
+  <si>
+    <t>${p.remark}</t>
+  </si>
+  <si>
+    <t>${obj.reportDate}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${p.setmeal_count}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日预约数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日到诊数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月新增会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周新增会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周预约数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周到诊数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月预约数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月到诊数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约到诊数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日新增会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,21 +284,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -228,56 +317,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,7 +392,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -574,161 +681,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K16"/>
+  <dimension ref="E2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="8.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11" ht="77.45" customHeight="1">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="5:11" ht="24.95" customHeight="1">
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="5:11" ht="27">
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="5:11" ht="20.25">
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="5:11" ht="20.25">
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" ht="27">
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="5:11" ht="20.25">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="5:11" ht="20.25">
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="5:11" ht="27">
-      <c r="E4" s="9" t="s">
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" ht="20.25">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="5:11" ht="20.25">
-      <c r="E5" s="3" t="s">
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="5:11" ht="20.25">
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="5:11" ht="27">
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="5:11" ht="20.25">
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="5:11" ht="20.25">
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="5:11" ht="20.25">
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="5:11" ht="27">
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="5:11" ht="20.25">
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="5:11" ht="20.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="5:11" ht="20.25">
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="5:11" ht="20.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="5:11" ht="20.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -738,11 +876,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -752,10 +890,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>